--- a/Clustering/Output_Clusters_Asigned_To_Countries/ward_10_af_df_solar_offshore.xlsx
+++ b/Clustering/Output_Clusters_Asigned_To_Countries/ward_10_af_df_solar_offshore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,22 +478,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02309913378248316</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.02089864158829677</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.03749999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02921840759678596</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06256015399422532</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.06374085684430505</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.0361111111111111</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05916727538349167</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002222222222222222</v>
+        <v>0.00544959128065395</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -546,16 +546,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06224279835390935</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.01623720437698552</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1101573676680971</v>
+        <v>0.05267175572519084</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1172976985894579</v>
+        <v>0.00860215053763441</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.1594798083504449</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -583,31 +583,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.002221516978736909</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003330161750713606</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2136669874879688</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.2408568443051225</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1047503045066993</v>
+        <v>0.2097222222222217</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.00860215053763441</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2279035792549312</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4170370370370413</v>
+        <v>0.3835149863760199</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -626,22 +626,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.008662175168431185</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.01880877742946709</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.0125</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02629656683710737</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.03511450381679389</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -694,31 +694,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.443351317042196</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4728829686013313</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1559191530317611</v>
+        <v>0.0858947368421052</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2037914691943125</v>
+        <v>0.1003134796238243</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.06666666666666668</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05624543462381306</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2792592592592592</v>
+        <v>0.2568119891008189</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.02977099236641221</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.01449275362318841</v>
       </c>
     </row>
     <row r="10">
@@ -768,16 +768,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1141975308641972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.1200141193081534</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01859799713876967</v>
+        <v>0.04351145038167939</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1128433556050481</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.09856262833675584</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06294706723891266</v>
+        <v>0.05190839694656488</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.001567398119122257</v>
       </c>
       <c r="G12" t="n">
-        <v>0.003654080389768575</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01781737193763919</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -885,22 +885,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00192492781520693</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.04493207941483803</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06281957633308992</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -922,25 +922,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3676612127045226</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.09926854754440942</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02801461632155906</v>
+        <v>0.481944444444443</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0964207450693939</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.07925925925925925</v>
+        <v>0.07288828337874667</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02932098765432101</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.02012001411930813</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -996,22 +996,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002887391722810395</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1545064377682403</v>
+        <v>0.03282442748091603</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.02246603970741904</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2996345919610225</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04380103934669639</v>
+        <v>0.3053763440860215</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01022644265887509</v>
+        <v>0.04038329911019845</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1033,22 +1033,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.004812319538017325</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.002089864158829676</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.006944444444444445</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002921840759678598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.005722460658082976</v>
+        <v>0.005343511450381679</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0022271714922049</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1107,25 +1107,25 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.004812319538017325</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.08516196447230916</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1212563915266621</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.01294277929155313</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1144,22 +1144,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.004812319538017325</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.01880877742946709</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.006944444444444445</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02629656683710737</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.004812319538017325</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.03709508881922677</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.01527777777777778</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.05624543462381306</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.04094599364631121</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1255,25 +1255,25 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09528392685274301</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.1332288401253917</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.03749999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.138056975894814</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001481481481481481</v>
+        <v>0.00544959128065395</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002861230329041488</v>
+        <v>0.009923664122137405</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.008166295471417964</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1582,28 +1582,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0884773662551438</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.05683021531944914</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2546494992846931</v>
+        <v>0.02442748091603053</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2253349573690625</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1039346696362285</v>
+        <v>0.3559139784946246</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.1033538672142371</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1619,28 +1619,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.05092592592592586</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.03494528768090354</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1258941344778252</v>
+        <v>0.1557251908396955</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.004179728317659352</v>
       </c>
       <c r="G33" t="n">
-        <v>0.009744214372716199</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3118040089086871</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.2080766598220391</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.003134796238244514</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.004382761139517896</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1720,191 +1720,6 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Spain / France</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.00243605359317905</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area United Kingdom / Denmark (Faeroe Islands)</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.01407407407407408</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Italy / France</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Sweden / Norway</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.0007304601899196494</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Croatia / Slovenia</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
         <v>0</v>
       </c>
     </row>
